--- a/myapp/graph_creation/add_rels.xlsx
+++ b/myapp/graph_creation/add_rels.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">pred</t>
   </si>
@@ -30,13 +30,10 @@
     <t xml:space="preserve">flw</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">310</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">324</t>
   </si>
 </sst>
 </file>
@@ -47,7 +44,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -72,6 +69,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +120,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,6 +134,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,7 +161,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -178,63 +186,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>15</v>
-      </c>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>12</v>
-      </c>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
